--- a/biology/Médecine/Philipp_Ulsted/Philipp_Ulsted.xlsx
+++ b/biology/Médecine/Philipp_Ulsted/Philipp_Ulsted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Ulsted[n 1](ou Philipp Ulstad, latin: Philippus Ulstadius), (14..?-15..?) est un médecin de Nuremberg, issu d'une famille noble de cette ville.
-Il enseigna la médecine à l'université de Fribourg en Suisse[1] durant la première moitié du XVIe siècle. C'était un médecin qui avait une bonne connaissance de l'alchimie mais qui était plus intéressé par l'extraction de la quintessence que par la production de transmutations.
+Il enseigna la médecine à l'université de Fribourg en Suisse durant la première moitié du XVIe siècle. C'était un médecin qui avait une bonne connaissance de l'alchimie mais qui était plus intéressé par l'extraction de la quintessence que par la production de transmutations.
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux ouvrages contribuèrent à sa célébrité :
-Coelum philosophorum seu de secretis naturae liber[2] (Fribourg, 1525, traduction allemande Strasbourg, 1527, trad. française[3] Paris, 1546)
+Coelum philosophorum seu de secretis naturae liber (Fribourg, 1525, traduction allemande Strasbourg, 1527, trad. française Paris, 1546)
 De epidemia tractatus Bâle 1526, traité sur la peste
 Suivant Bibliotheca universalis de Conrad Gesner, le Coelum philosophorum (Le Ciel des Philosophes) fut composé à Fribourg mais imprimé à Strasbourg en 1528.
 L'ouvrage eut un grand succès et connut une vingtaine d'éditions tant en latin qu'en français ou en allemand.
-Intitulé en français[3] : Le Ciel des Philosophes, où sont contenus les secrets de la nature &amp; comme l'homme se peut tenir en santé &amp; longuement vivre, composé par Philippe Ulstade, extrait des livres de Arnould de Villeneuve, du grand Albert, Raymond Lulle, Iehan de la Roche tranchée [Jean Rupescissa], &amp; plusieurs autres bons autheurs, de nouveau traduits de Latin en Français, auquel livre ont été ajoutées les figures, pour donner plus facile intelligence, avecques la table de ce qui est contenu audict livre, Paris 1550.
+Intitulé en français : Le Ciel des Philosophes, où sont contenus les secrets de la nature &amp; comme l'homme se peut tenir en santé &amp; longuement vivre, composé par Philippe Ulstade, extrait des livres de Arnould de Villeneuve, du grand Albert, Raymond Lulle, Iehan de la Roche tranchée [Jean Rupescissa], &amp; plusieurs autres bons autheurs, de nouveau traduits de Latin en Français, auquel livre ont été ajoutées les figures, pour donner plus facile intelligence, avecques la table de ce qui est contenu audict livre, Paris 1550.
 Cet ouvrage traite principalement des techniques de distillation, de la quintessence, et de l'or potable. Ulsted puise abondamment dans De quinta essentia de Jean de Rupescissa, lui-même tributaire d'Arnaud de Villeneuve ainsi que des traités alchimiques mis sous le nom de Raymond Lulle.  Les appareils et les techniques de distillation avaient déjà été décrits dans les ouvrages de l'apothicaire strasbourgeois Hieronymus Brunschwig au début du siècle ; certaines figures d'alambic sont d'ailleurs exactement identiques à celles publiées Liber de arte distillandi de simplicibus. L'intérêt d'Ulsted s'est surtout porté sur la distillation de la quintessence, obtenue en un très grand nombre d'opérations de rectification.
-La recherche de l'or potable est une quête de l'élixir de longue vie, remontant au taoïste chinois Ge Hong et venue en Europe via les alchimistes arabes. La vraie méthode pour faire l'or potable selon Ulsted est celle qu'enseignait Marsile Ficin et qui consiste à faire passer la vertu de l'or (i.e. sa quintessence) dans l'eau ordinaire plutôt que dans l'eau-forte[4]. Elle consiste à éteindre des lames d'or dans une eau résultant de la distillation de fleurs de buglosse, de mélisse et de chélidoine.
+La recherche de l'or potable est une quête de l'élixir de longue vie, remontant au taoïste chinois Ge Hong et venue en Europe via les alchimistes arabes. La vraie méthode pour faire l'or potable selon Ulsted est celle qu'enseignait Marsile Ficin et qui consiste à faire passer la vertu de l'or (i.e. sa quintessence) dans l'eau ordinaire plutôt que dans l'eau-forte. Elle consiste à éteindre des lames d'or dans une eau résultant de la distillation de fleurs de buglosse, de mélisse et de chélidoine.
 </t>
         </is>
       </c>
@@ -550,15 +564,17 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les traités de distillation de la Renaissance sont :
-Michael Puff, Büchlein von den ausgebrannten Wässern (de)[5], 1476
+Michael Puff, Büchlein von den ausgebrannten Wässern (de), 1476
 Hieronymus Brunschwig, Liber de arte distillandi de simplicibus, 1500
 (Philipp Ulsted, Coelum philosophorum, 1525)
 Conrad Gesner, Trésor des remèdes secrets, 1552
 Jacques Besson, L'art et moyen parfaict, de tirer huyles et eaux, de tous medicaments simples et oleogineux, 1554
-Caspar Wolf, Polychymia[6], 1567
+Caspar Wolf, Polychymia, 1567
 Jean Liébault, Quatre livres des secrets de médecine et de la philosophie chymique , 1573
 Giambattista Della Porta, De distillatione libri IX, 1608</t>
         </is>
